--- a/Leetcode/Thinking_process/Leetcode NoteBook/LeetCode_Whiteboard/Leetcode.xlsx
+++ b/Leetcode/Thinking_process/Leetcode NoteBook/LeetCode_Whiteboard/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nguyen\Coding\C++\Competitive_programming\Leetcode\Thinking_process\Leetcode NoteBook\LeetCode_Whiteboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B66EDE-CB44-42FC-AFF2-22208CE0016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F9EFAB-40A8-4041-9D67-1694BFE494E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{5619DD07-ACFA-46F6-80A6-6DEA1884F055}"/>
   </bookViews>
@@ -33,6 +33,44 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Topics </t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question </t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backtracking, Bit manipulation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset II </t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Possible alternatives</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +420,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD99BE9-897A-4D31-930A-0DD62EF5A28E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.21875" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Leetcode/Thinking_process/Leetcode NoteBook/LeetCode_Whiteboard/Leetcode.xlsx
+++ b/Leetcode/Thinking_process/Leetcode NoteBook/LeetCode_Whiteboard/Leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nguyen\Coding\C++\Competitive_programming\Leetcode\Thinking_process\Leetcode NoteBook\LeetCode_Whiteboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F9EFAB-40A8-4041-9D67-1694BFE494E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8CE0BC-7D87-4EDA-8A04-1924BC7635F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{5619DD07-ACFA-46F6-80A6-6DEA1884F055}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{5619DD07-ACFA-46F6-80A6-6DEA1884F055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t xml:space="preserve">Topics </t>
   </si>
@@ -68,7 +68,58 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Possible alternatives</t>
+    <t>Hash table</t>
+  </si>
+  <si>
+    <t>Contain Duplicate</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use an unordered_map, insert the number in the map, then return true </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complexity (Time, Space) </t>
+  </si>
+  <si>
+    <t>O(n), O(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible alternatives ( Time) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear search or sorting (O(n^2), O(nlogn) </t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Sort two arrays, compare the two</t>
+  </si>
+  <si>
+    <t>O(log(t)), O(1)</t>
+  </si>
+  <si>
+    <t>Hash map, but cost more time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use hash.find(target - nums[i]) to check if the other number exist, otherwise populate the hash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two loops (O(n^2), but space O(1)) </t>
   </si>
 </sst>
 </file>
@@ -420,21 +471,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD99BE9-897A-4D31-930A-0DD62EF5A28E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="29.109375" customWidth="1"/>
     <col min="4" max="4" width="51.21875" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="84.5546875" customWidth="1"/>
+    <col min="7" max="7" width="62.88671875" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -454,10 +506,13 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>90</v>
       </c>
@@ -472,6 +527,84 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode/Thinking_process/Leetcode NoteBook/LeetCode_Whiteboard/Leetcode.xlsx
+++ b/Leetcode/Thinking_process/Leetcode NoteBook/LeetCode_Whiteboard/Leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nguyen\Coding\C++\Competitive_programming\Leetcode\Thinking_process\Leetcode NoteBook\LeetCode_Whiteboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8CE0BC-7D87-4EDA-8A04-1924BC7635F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25142F73-76B4-4016-8911-0AD8188F87CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{5619DD07-ACFA-46F6-80A6-6DEA1884F055}"/>
+    <workbookView xWindow="1332" yWindow="1260" windowWidth="20736" windowHeight="10884" xr2:uid="{5619DD07-ACFA-46F6-80A6-6DEA1884F055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t xml:space="preserve">Topics </t>
   </si>
@@ -120,6 +120,39 @@
   </si>
   <si>
     <t xml:space="preserve">Two loops (O(n^2), but space O(1)) </t>
+  </si>
+  <si>
+    <t>Two pointers</t>
+  </si>
+  <si>
+    <t>Array pointer</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>O(n), O(1)</t>
+  </si>
+  <si>
+    <t>Compare by using the reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initialize two pointer, ignore all of the space, comma and period by using isalnum(), return the solution (remember to lower all of the characters) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal array </t>
+  </si>
+  <si>
+    <t>Find Pivot Index</t>
+  </si>
+  <si>
+    <t>Initialize sum and left sum, use sum - leftsum - the nums[i] and if those two are equal, the answer should be the same</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>1991 Similar</t>
   </si>
 </sst>
 </file>
@@ -463,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD99BE9-897A-4D31-930A-0DD62EF5A28E}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +519,7 @@
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -511,8 +544,11 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>90</v>
       </c>
@@ -529,7 +565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>217</v>
       </c>
@@ -555,7 +591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>242</v>
       </c>
@@ -581,7 +617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -605,6 +641,55 @@
       </c>
       <c r="H5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
